--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1252859031476574</v>
+        <v>-0.1584919942238931</v>
       </c>
       <c r="D2">
-        <v>0.9003122106326107</v>
+        <v>0.8755150002312924</v>
       </c>
       <c r="E2">
         <v>0.8121473008574055</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.0540228888673957</v>
+        <v>0.04812628085106024</v>
       </c>
       <c r="D3">
-        <v>0.9569233551637315</v>
+        <v>0.9620498358214671</v>
       </c>
       <c r="E3">
         <v>0.8121473008574055</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.917798362723893</v>
+        <v>1.601890554957543</v>
       </c>
       <c r="D4">
-        <v>0.05530605913592423</v>
+        <v>0.1234422142472815</v>
       </c>
       <c r="E4">
         <v>0.8121473008574055</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3325403141316573</v>
+        <v>0.4307059559246332</v>
       </c>
       <c r="D5">
-        <v>0.739522815992451</v>
+        <v>0.6708725583541408</v>
       </c>
       <c r="E5">
         <v>0.8121473008574055</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1652851393547714</v>
+        <v>0.1803911439826319</v>
       </c>
       <c r="D6">
-        <v>0.8687394527427237</v>
+        <v>0.8584968813191627</v>
       </c>
       <c r="E6">
         <v>0.8160705655727982</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.018294119307686</v>
+        <v>2.100307796938995</v>
       </c>
       <c r="D7">
-        <v>0.04371938555718602</v>
+        <v>0.04738800254688202</v>
       </c>
       <c r="E7">
         <v>0.8160705655727982</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4080955452726687</v>
+        <v>0.4934900569188288</v>
       </c>
       <c r="D8">
-        <v>0.6832555647838849</v>
+        <v>0.6265568377508455</v>
       </c>
       <c r="E8">
         <v>0.8160705655727982</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.784996819812493</v>
+        <v>1.38549940713439</v>
       </c>
       <c r="D9">
-        <v>0.07444231257020495</v>
+        <v>0.1797870501751282</v>
       </c>
       <c r="E9">
         <v>0.8105308920628</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2624945303577289</v>
+        <v>0.3283099868472023</v>
       </c>
       <c r="D10">
-        <v>0.792972404372779</v>
+        <v>0.7457816477355639</v>
       </c>
       <c r="E10">
         <v>0.8105308920628</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.423168206173164</v>
+        <v>-1.57063483930161</v>
       </c>
       <c r="D11">
-        <v>0.1548731792911118</v>
+        <v>0.1305397169915969</v>
       </c>
       <c r="E11">
         <v>0.7566799435634138</v>
